--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -26,7 +26,7 @@
     <t>Количество университетов</t>
   </si>
   <si>
-    <t>Университеты</t>
+    <t>Названия университетов</t>
   </si>
   <si>
     <t>Медицинский</t>
@@ -67,8 +67,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="0.6"/>
+      <name val="Arial"/>
+      <sz val="0.55"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -101,16 +101,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>4.329999923706055</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4.539999961853027</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -29,28 +29,28 @@
     <t>Названия университетов</t>
   </si>
   <si>
+    <t>Математический</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
+  </si>
+  <si>
+    <t>Лингвистический</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет;</t>
+  </si>
+  <si>
     <t>Медицинский</t>
   </si>
   <si>
     <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
   </si>
   <si>
-    <t>Математический</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений;</t>
-  </si>
-  <si>
     <t>Физический</t>
   </si>
   <si>
     <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
-  </si>
-  <si>
-    <t>Лингвистический</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет;</t>
   </si>
 </sst>
 </file>
@@ -129,13 +129,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.329999923706055</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -163,13 +163,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>4.539999961853027</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
@@ -180,13 +180,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>12</v>

--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -29,10 +29,10 @@
     <t>Названия университетов</t>
   </si>
   <si>
-    <t>Математический</t>
+    <t>Физический</t>
   </si>
   <si>
-    <t>Казанский Университет Вычислений;</t>
+    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
   </si>
   <si>
     <t>Лингвистический</t>
@@ -47,10 +47,10 @@
     <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
   </si>
   <si>
-    <t>Физический</t>
+    <t>Математический</t>
   </si>
   <si>
-    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
+    <t>Казанский Университет Вычислений;</t>
   </si>
 </sst>
 </file>
@@ -129,13 +129,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -180,13 +180,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>4.539999961853027</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>12</v>
